--- a/m1/UnityProject/Assets/Scene/9000_Test/doc/MainControl.xlsx
+++ b/m1/UnityProject/Assets/Scene/9000_Test/doc/MainControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47BC6E9-23DD-4FB7-A148-CE46045ABD16}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BA48ED-3754-4B1D-BDBB-4B4867BC0921}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>state</t>
     <phoneticPr fontId="13"/>
@@ -550,7 +550,64 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/06/17 10:55:08
+    <t>S_WAIT_TIMEOUT</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>S_WAIT_TIMEOUT</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>タイムアウトを待つ。死亡時もあり。</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>100009</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>wait_timer(5000);</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>wait_done_or_over()</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>br_timeout(S_SETUP_STAGE3);
+br_over(S_GAMEOVER);</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>S_SETUP_STAGE3</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>STAGE3をセットアップ</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>100010</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>S_GAMEOVER</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>new state</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>S_SETUP_STAGE1</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>100011</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/06/18 22:01:12
 xlsfile=@@@
 MainControl.xlsx
 @@@
@@ -564,7 +621,7 @@
 [{"Key":"S_Init","Value":{"x":83,"y":141}},{"Key":"S_CheckMouseGF","Value":{"x":1641,"y":1589.83337}},{"Key":"S_GroupFocus","Value":{"x":437.244476,"y":1574.85217}},{"Key":"S_FocusCancelWithTick","Value":{"x":168.689575,"y":1066.93384}},{"Key":"S_Refactor","Value":{"x":3145.12476,"y":1510.833}},{"Key":"S_Rename","Value":{"x":3139.74829,"y":1220.772}},{"Key":"S_Delete","Value":{"x":3138.25464,"y":956.555664}},{"Key":"S_Copy","Value":{"x":3124.11133,"y":716.5556}},{"Key":"S_ShowStateMenu","Value":{"x":2100.11133,"y":1006.36505}},{"Key":"S_FocusState2","Value":{"x":740.107239,"y":401.4206}},{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_FreeArrow","Value":{"x":690.2707,"y":1243.35376}},{"Key":"S_FocusOne","Value":{"x":696.107239,"y":1650.8717}},{"Key":"S_BranchEditClose","Value":{"x":970.8478,"y":809.6318}},{"Key":"S_TotalDraw","Value":{"x":3542.44482,"y":810.635132}},{"Key":"S_EditWait","Value":{"x":2659.69824,"y":578.5556}},{"Key":"S_Edit","Value":{"x":2427.80957,"y":735.4445}},{"Key":"S_Drop","Value":{"x":2530.85742,"y":190.253952}},{"Key":"S_DragCancel","Value":{"x":987,"y":123}},{"Key":"S_DragMove","Value":{"x":2260.30713,"y":121.274521}},{"Key":"S_Drag","Value":{"x":2073.405,"y":101.143784}},{"Key":"S_CheckMouse","Value":{"x":1443.01855,"y":243.841583}},{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":783.951}},{"Key":"S_IsMouseDown","Value":{"x":1212.59216,"y":238.459229}},{"Key":"S_FocusState","Value":{"x":736.3333,"y":174.333344}},{"Key":"S_BranchEditOpen","Value":{"x":801,"y":809}},{"Key":"S_DragAndDropGF","Value":{"x":1822.75,"y":1577}}]
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_Init","Value":{"x":31.0512848,"y":106.307693}},{"Key":"S_FocusCancelWithTick","Value":{"x":246.365723,"y":1243.87061}},{"Key":"S_GroupFocus","Value":{"x":663.088562,"y":1251.60535}},{"Key":"S_CheckMouseGF","Value":{"x":1431,"y":1386}},{"Key":"S_FocusOne","Value":{"x":944.379,"y":1241.59119}},{"Key":"S_DragAndDropGF","Value":{"x":1431,"y":1386}},{"Key":"S_ShowStateMenuGF","Value":{"x":1431,"y":1386}},{"Key":"S_Grouping","Value":{"x":1431,"y":1386}},{"Key":"S_Refactor","Value":{"x":1232,"y":168}},{"Key":"S_MoveTo","Value":{"x":1431,"y":1386}},{"Key":"S_RedrawOpt","Value":{"x":1818.19714,"y":828.893}},{"Key":"S_FocusGroupNode","Value":{"x":1232,"y":320}},{"Key":"S_CheckMouseGN","Value":{"x":1232,"y":320}},{"Key":"S_DragAndDropGN","Value":{"x":1232,"y":320}},{"Key":"S_ShowGroupNodeMenu","Value":{"x":1232,"y":320}},{"Key":"S_EnterGN","Value":{"x":1232,"y":320}},{"Key":"S_UngroupingGN","Value":{"x":1232,"y":320}},{"Key":"S_Ungrouping","Value":{"x":1431,"y":1386}},{"Key":"S_ShowBlankMenu","Value":{"x":1230,"y":497}},{"Key":"S_Rename","Value":{"x":1232,"y":168}},{"Key":"S_Copy","Value":{"x":1232,"y":168}},{"Key":"S_FocusState","Value":{"x":1232,"y":168}},{"Key":"S_IsMouseDown","Value":{"x":1232,"y":168}},{"Key":"S_FocusCancel","Value":{"x":251.681366,"y":866.6176}},{"Key":"S_CheckMouse","Value":{"x":1232,"y":168}},{"Key":"S_Drag","Value":{"x":1232,"y":168}},{"Key":"S_DragMove","Value":{"x":1232,"y":168}},{"Key":"S_DragCancel","Value":{"x":1232,"y":168}},{"Key":"S_Delete","Value":{"x":1232,"y":168}},{"Key":"S_Drop","Value":{"x":1232,"y":168}},{"Key":"S_EditWait","Value":{"x":1232,"y":168}},{"Key":"S_BranchEditOpen","Value":{"x":448.910522,"y":116.41124}},{"Key":"S_BranchEditClose","Value":{"x":642.3312,"y":113.063263}},{"Key":"S_FreeArrow","Value":{"x":662.0944,"y":880.246948}},{"Key":"S_Idle2","Value":{"x":242.300232,"y":99.9509}},{"Key":"S_FocusState2","Value":{"x":1232,"y":168}},{"Key":"S_ShowStateMenu","Value":{"x":1232,"y":168}},{"Key":"S_Edit","Value":{"x":1232,"y":168}},{"Key":"S_Leave","Value":{"x":1230,"y":497}},{"Key":"S_EditGN","Value":{"x":1232,"y":320}},{"Key":"S_BranchEditOpen0","Value":{"x":1232.91052,"y":716.411255}},{"Key":"S_HoldMBD_INIT","Value":{"x":1233.91052,"y":716.411255}},{"Key":"S_Sliding","Value":{"x":1235.91052,"y":721.411255}},{"Key":"S_Moveto","Value":{"x":1232,"y":168}},{"Key":"S_MovetoGN","Value":{"x":1232,"y":320}},{"Key":"S_NewState","Value":{"x":1230,"y":497}},{"Key":"S_START","Value":{"x":34.8235245,"y":44.8235168}},{"Key":"S_EDT_BMP","Value":{"x":693,"y":4}},{"Key":"S_EDT_ST","Value":{"x":696.6668,"y":136}},{"Key":"S_EDT_NST","Value":{"x":692,"y":270.999939}},{"Key":"S_EDT_BR","Value":{"x":697.333435,"y":415.999939}},{"Key":"S_EDT_BRGO","Value":{"x":925.3334,"y":410.000061}},{"Key":"S_EDT_TEXT","Value":{"x":925.9998,"y":958.9999}},{"Key":"S_EDT_SRCH","Value":{"x":703,"y":643.6666}},{"Key":"S_EDT_LVL","Value":{"x":693.666565,"y":817.666748}},{"Key":"S_END","Value":{"x":1084.31836,"y":25.6436768}},{"Key":"S_1","Value":{"x":231.76474,"y":314.117676}},{"Key":"S_WAIT","Value":{"x":507.117676,"y":47.52945}},{"Key":"S_CAMERA_0","Value":{"x":505,"y":130}},{"Key":"S_CAM_T1","Value":{"x":702.588257,"y":30.4705963}},{"Key":"S_SETUP","Value":{"x":227.2941,"y":154.411728}},{"Key":"S_LAUNCHSTART","Value":{"x":887.353,"y":30.352951}},{"Key":"S_SETUP_STAGE2","Value":{"x":256.7648,"y":411.5294}},{"Key":"S_SETUP_STAGE1","Value":{"x":315.2941,"y":32.82351}},{"Key":"S_DEBUG","Value":{"x":54.11767,"y":298.823547}}]},{"Key":"\/SingleStateWork\/","Value":[{"Key":"S_FocusState","Value":{"x":455.0658,"y":694}},{"Key":"S_FocusCancelWithTick","Value":{"x":170.507751,"y":1170.57019}},{"Key":"S_Refactor","Value":{"x":1491.9552,"y":1516.94031}},{"Key":"S_Rename","Value":{"x":1483.36255,"y":1075.50513}},{"Key":"S_Delete","Value":{"x":1478.84619,"y":880.538452}},{"Key":"S_Copy","Value":{"x":1465.60193,"y":648.725647}},{"Key":"S_ShowStateMenu","Value":{"x":1228.15222,"y":937.124756}},{"Key":"S_FocusState2","Value":{"x":453.40625,"y":403.094421}},{"Key":"S_Idle2","Value":{"x":175.512329,"y":179.981186}},{"Key":"S_EditWait","Value":{"x":1463.96655,"y":400.675049}},{"Key":"S_Edit","Value":{"x":1224.66321,"y":485.389771}},{"Key":"S_Drop","Value":{"x":1701.46033,"y":169.437088}},{"Key":"S_DragCancel","Value":{"x":454.119263,"y":190.307678}},{"Key":"S_DragMove","Value":{"x":1468.66675,"y":122.333328}},{"Key":"S_Drag","Value":{"x":1220.46375,"y":139.14032}},{"Key":"S_CheckMouse","Value":{"x":970.461548,"y":121}},{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":776.6782}},{"Key":"S_IsMouseDown","Value":{"x":746,"y":136.504089}},{"Key":"S_FocusOne","Value":{"x":430,"y":1200.36621}},{"Key":"S_RedrawOpt","Value":{"x":1925.08044,"y":1161.68811}},{"Key":"S_Rename0","Value":{"x":1497.83618,"y":1287.34717}},{"Key":"S_Moveto","Value":{"x":1491.2572,"y":1287.34717}}]},{"Key":"\/GroupFocus\/","Value":[{"Key":"S_FocusCancel","Value":{"x":799.999939,"y":1030}},{"Key":"S_GroupFocus","Value":{"x":114.285675,"y":65.7142944}},{"Key":"S_CheckMouseGF","Value":{"x":404.8571,"y":86.94879}},{"Key":"S_DragAndDropGF","Value":{"x":806.782043,"y":89.2857056}},{"Key":"S_ShowStateMenuGF","Value":{"x":806.639038,"y":532.1429}},{"Key":"S_Grouping","Value":{"x":1107.92493,"y":127.857132}},{"Key":"S_MoveTo","Value":{"x":1099.21057,"y":556.4285}},{"Key":"S_Ungrouping","Value":{"x":1100.49622,"y":899.285645}},{"Key":"S_RedrawOpt","Value":{"x":1540.35327,"y":549.285767}}]},{"Key":"\/ShowBlankMenu\/","Value":[{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_RedrawOpt","Value":{"x":1615.9082,"y":457.833221}},{"Key":"S_ShowBlankMenu","Value":{"x":844.084534,"y":533.1274}},{"Key":"S_Leave","Value":{"x":1228.73169,"y":575.480347}}]},{"Key":"\/GroupNodeWork\/","Value":[{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":783.951}},{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_FocusCancelWithTick","Value":{"x":168.689575,"y":1066.93384}},{"Key":"S_RedrawOpt","Value":{"x":2355.6897,"y":1086.934}},{"Key":"S_FocusGroupNode","Value":{"x":693,"y":503}},{"Key":"S_CheckMouseGN","Value":{"x":940,"y":503}},{"Key":"S_DragAndDropGN","Value":{"x":1187,"y":503}},{"Key":"S_ShowGroupNodeMenu","Value":{"x":1434,"y":503}},{"Key":"S_EnterGN","Value":{"x":1681,"y":503}},{"Key":"S_UngroupingGN","Value":{"x":1686.33337,"y":658.3333}},{"Key":"S_UngroupingGN0","Value":{"x":1702.33337,"y":787.3333}},{"Key":"S_EditGN","Value":{"x":1689.66663,"y":969.6666}},{"Key":"S_MovetoGN","Value":{"x":1689.33337,"y":797.3333}}]},{"Key":"\/BlankWork\/","Value":[{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_RedrawOpt","Value":{"x":622.9669,"y":231.9509}},{"Key":"S_ShowBlankMenu","Value":{"x":869.9669,"y":231.9509}},{"Key":"S_Leave","Value":{"x":1116.96692,"y":231.9509}},{"Key":"S_Leave0","Value":{"x":1134.46692,"y":431.9509}},{"Key":"S_NewState","Value":{"x":1123.21692,"y":440.7009}}]}]
+[{"Key":"\/","Value":[{"Key":"S_Init","Value":{"x":31.0512848,"y":106.307693}},{"Key":"S_FocusCancelWithTick","Value":{"x":246.365723,"y":1243.87061}},{"Key":"S_GroupFocus","Value":{"x":663.088562,"y":1251.60535}},{"Key":"S_CheckMouseGF","Value":{"x":1431,"y":1386}},{"Key":"S_FocusOne","Value":{"x":944.379,"y":1241.59119}},{"Key":"S_DragAndDropGF","Value":{"x":1431,"y":1386}},{"Key":"S_ShowStateMenuGF","Value":{"x":1431,"y":1386}},{"Key":"S_Grouping","Value":{"x":1431,"y":1386}},{"Key":"S_Refactor","Value":{"x":1232,"y":168}},{"Key":"S_MoveTo","Value":{"x":1431,"y":1386}},{"Key":"S_RedrawOpt","Value":{"x":1818.19714,"y":828.893}},{"Key":"S_FocusGroupNode","Value":{"x":1232,"y":320}},{"Key":"S_CheckMouseGN","Value":{"x":1232,"y":320}},{"Key":"S_DragAndDropGN","Value":{"x":1232,"y":320}},{"Key":"S_ShowGroupNodeMenu","Value":{"x":1232,"y":320}},{"Key":"S_EnterGN","Value":{"x":1232,"y":320}},{"Key":"S_UngroupingGN","Value":{"x":1232,"y":320}},{"Key":"S_Ungrouping","Value":{"x":1431,"y":1386}},{"Key":"S_ShowBlankMenu","Value":{"x":1230,"y":497}},{"Key":"S_Rename","Value":{"x":1232,"y":168}},{"Key":"S_Copy","Value":{"x":1232,"y":168}},{"Key":"S_FocusState","Value":{"x":1232,"y":168}},{"Key":"S_IsMouseDown","Value":{"x":1232,"y":168}},{"Key":"S_FocusCancel","Value":{"x":251.681366,"y":866.6176}},{"Key":"S_CheckMouse","Value":{"x":1232,"y":168}},{"Key":"S_Drag","Value":{"x":1232,"y":168}},{"Key":"S_DragMove","Value":{"x":1232,"y":168}},{"Key":"S_DragCancel","Value":{"x":1232,"y":168}},{"Key":"S_Delete","Value":{"x":1232,"y":168}},{"Key":"S_Drop","Value":{"x":1232,"y":168}},{"Key":"S_EditWait","Value":{"x":1232,"y":168}},{"Key":"S_BranchEditOpen","Value":{"x":448.910522,"y":116.41124}},{"Key":"S_BranchEditClose","Value":{"x":642.3312,"y":113.063263}},{"Key":"S_FreeArrow","Value":{"x":662.0944,"y":880.246948}},{"Key":"S_Idle2","Value":{"x":242.300232,"y":99.9509}},{"Key":"S_FocusState2","Value":{"x":1232,"y":168}},{"Key":"S_ShowStateMenu","Value":{"x":1232,"y":168}},{"Key":"S_Edit","Value":{"x":1232,"y":168}},{"Key":"S_Leave","Value":{"x":1230,"y":497}},{"Key":"S_EditGN","Value":{"x":1232,"y":320}},{"Key":"S_BranchEditOpen0","Value":{"x":1232.91052,"y":716.411255}},{"Key":"S_HoldMBD_INIT","Value":{"x":1233.91052,"y":716.411255}},{"Key":"S_Sliding","Value":{"x":1235.91052,"y":721.411255}},{"Key":"S_Moveto","Value":{"x":1232,"y":168}},{"Key":"S_MovetoGN","Value":{"x":1232,"y":320}},{"Key":"S_NewState","Value":{"x":1230,"y":497}},{"Key":"S_START","Value":{"x":34.8235245,"y":44.8235168}},{"Key":"S_EDT_BMP","Value":{"x":693,"y":4}},{"Key":"S_EDT_ST","Value":{"x":696.6668,"y":136}},{"Key":"S_EDT_NST","Value":{"x":692,"y":270.999939}},{"Key":"S_EDT_BR","Value":{"x":697.333435,"y":415.999939}},{"Key":"S_EDT_BRGO","Value":{"x":925.3334,"y":410.000061}},{"Key":"S_EDT_TEXT","Value":{"x":925.9998,"y":958.9999}},{"Key":"S_EDT_SRCH","Value":{"x":703,"y":643.6666}},{"Key":"S_EDT_LVL","Value":{"x":693.666565,"y":817.666748}},{"Key":"S_END","Value":{"x":1084.31836,"y":25.6436768}},{"Key":"S_1","Value":{"x":884,"y":549}},{"Key":"S_WAIT","Value":{"x":507.117676,"y":47.52945}},{"Key":"S_CAMERA_0","Value":{"x":505,"y":130}},{"Key":"S_CAM_T1","Value":{"x":702.588257,"y":30.4705963}},{"Key":"S_SETUP","Value":{"x":227.2941,"y":154.411728}},{"Key":"S_LAUNCHSTART","Value":{"x":887.353,"y":30.352951}},{"Key":"S_SETUP_STAGE2","Value":{"x":390.764771,"y":362.5294}},{"Key":"S_SETUP_STAGE1","Value":{"x":315.2941,"y":32.82351}},{"Key":"S_DEBUG","Value":{"x":54.11767,"y":298.823547}},{"Key":"S_WAIT_TIMEOUT","Value":{"x":643,"y":356}},{"Key":"S_SETUP_STAGE3","Value":{"x":860,"y":349}},{"Key":"S_GAMEOVER","Value":{"x":859,"y":550}}]},{"Key":"\/SingleStateWork\/","Value":[{"Key":"S_FocusState","Value":{"x":455.0658,"y":694}},{"Key":"S_FocusCancelWithTick","Value":{"x":170.507751,"y":1170.57019}},{"Key":"S_Refactor","Value":{"x":1491.9552,"y":1516.94031}},{"Key":"S_Rename","Value":{"x":1483.36255,"y":1075.50513}},{"Key":"S_Delete","Value":{"x":1478.84619,"y":880.538452}},{"Key":"S_Copy","Value":{"x":1465.60193,"y":648.725647}},{"Key":"S_ShowStateMenu","Value":{"x":1228.15222,"y":937.124756}},{"Key":"S_FocusState2","Value":{"x":453.40625,"y":403.094421}},{"Key":"S_Idle2","Value":{"x":175.512329,"y":179.981186}},{"Key":"S_EditWait","Value":{"x":1463.96655,"y":400.675049}},{"Key":"S_Edit","Value":{"x":1224.66321,"y":485.389771}},{"Key":"S_Drop","Value":{"x":1701.46033,"y":169.437088}},{"Key":"S_DragCancel","Value":{"x":454.119263,"y":190.307678}},{"Key":"S_DragMove","Value":{"x":1468.66675,"y":122.333328}},{"Key":"S_Drag","Value":{"x":1220.46375,"y":139.14032}},{"Key":"S_CheckMouse","Value":{"x":970.461548,"y":121}},{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":776.6782}},{"Key":"S_IsMouseDown","Value":{"x":746,"y":136.504089}},{"Key":"S_FocusOne","Value":{"x":430,"y":1200.36621}},{"Key":"S_RedrawOpt","Value":{"x":1925.08044,"y":1161.68811}},{"Key":"S_Rename0","Value":{"x":1497.83618,"y":1287.34717}},{"Key":"S_Moveto","Value":{"x":1491.2572,"y":1287.34717}}]},{"Key":"\/GroupFocus\/","Value":[{"Key":"S_FocusCancel","Value":{"x":799.999939,"y":1030}},{"Key":"S_GroupFocus","Value":{"x":114.285675,"y":65.7142944}},{"Key":"S_CheckMouseGF","Value":{"x":404.8571,"y":86.94879}},{"Key":"S_DragAndDropGF","Value":{"x":806.782043,"y":89.2857056}},{"Key":"S_ShowStateMenuGF","Value":{"x":806.639038,"y":532.1429}},{"Key":"S_Grouping","Value":{"x":1107.92493,"y":127.857132}},{"Key":"S_MoveTo","Value":{"x":1099.21057,"y":556.4285}},{"Key":"S_Ungrouping","Value":{"x":1100.49622,"y":899.285645}},{"Key":"S_RedrawOpt","Value":{"x":1540.35327,"y":549.285767}}]},{"Key":"\/ShowBlankMenu\/","Value":[{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_RedrawOpt","Value":{"x":1615.9082,"y":457.833221}},{"Key":"S_ShowBlankMenu","Value":{"x":844.084534,"y":533.1274}},{"Key":"S_Leave","Value":{"x":1228.73169,"y":575.480347}}]},{"Key":"\/GroupNodeWork\/","Value":[{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":783.951}},{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_FocusCancelWithTick","Value":{"x":168.689575,"y":1066.93384}},{"Key":"S_RedrawOpt","Value":{"x":2355.6897,"y":1086.934}},{"Key":"S_FocusGroupNode","Value":{"x":693,"y":503}},{"Key":"S_CheckMouseGN","Value":{"x":940,"y":503}},{"Key":"S_DragAndDropGN","Value":{"x":1187,"y":503}},{"Key":"S_ShowGroupNodeMenu","Value":{"x":1434,"y":503}},{"Key":"S_EnterGN","Value":{"x":1681,"y":503}},{"Key":"S_UngroupingGN","Value":{"x":1686.33337,"y":658.3333}},{"Key":"S_UngroupingGN0","Value":{"x":1702.33337,"y":787.3333}},{"Key":"S_EditGN","Value":{"x":1689.66663,"y":969.6666}},{"Key":"S_MovetoGN","Value":{"x":1689.33337,"y":797.3333}}]},{"Key":"\/BlankWork\/","Value":[{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_RedrawOpt","Value":{"x":622.9669,"y":231.9509}},{"Key":"S_ShowBlankMenu","Value":{"x":869.9669,"y":231.9509}},{"Key":"S_Leave","Value":{"x":1116.96692,"y":231.9509}},{"Key":"S_Leave0","Value":{"x":1134.46692,"y":431.9509}},{"Key":"S_NewState","Value":{"x":1123.21692,"y":440.7009}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -1458,7 +1515,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="44" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1603,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1560,7 +1617,7 @@
     <col min="1" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="144.75" customHeight="1">
+    <row r="1" spans="1:14" ht="144.75" customHeight="1">
       <c r="A1" s="26"/>
       <c r="B1" s="27" t="s">
         <v>8</v>
@@ -1569,7 +1626,7 @@
       <c r="D1" s="27"/>
       <c r="E1" s="28"/>
     </row>
-    <row r="2" spans="1:11" s="20" customFormat="1">
+    <row r="2" spans="1:14" s="20" customFormat="1">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
         <v>0</v>
@@ -1601,8 +1658,17 @@
       <c r="K2" s="47" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="37.5">
+      <c r="L2" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="56.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1634,8 +1700,17 @@
       <c r="K3" s="48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1">
+      <c r="L3" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -1660,20 +1735,29 @@
         <v>45</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K4" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="6"/>
       <c r="B5" s="14"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1">
+    <row r="6" spans="1:14" ht="18.75" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="21" t="s">
         <v>14</v>
@@ -1696,15 +1780,18 @@
       <c r="J6" s="49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="6"/>
       <c r="B7" s="13"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="21" t="s">
         <v>15</v>
@@ -1713,14 +1800,14 @@
       <c r="D8" s="7"/>
       <c r="E8" s="33"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:14">
       <c r="A9" s="6"/>
       <c r="B9" s="11"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="21" t="s">
         <v>7</v>
@@ -1737,8 +1824,11 @@
       <c r="I10" s="49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="6"/>
       <c r="B11" s="21" t="s">
         <v>18</v>
@@ -1747,14 +1837,14 @@
       <c r="D11" s="12"/>
       <c r="E11" s="34"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:14">
       <c r="A12" s="6"/>
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:14" ht="18.75" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
         <v>6</v>
@@ -1762,8 +1852,11 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="36"/>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1">
+      <c r="L13" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" customHeight="1">
       <c r="A14" s="37"/>
       <c r="B14" s="23" t="s">
         <v>13</v>
@@ -1772,14 +1865,14 @@
       <c r="D14" s="23"/>
       <c r="E14" s="38"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:14">
       <c r="A15" s="39"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="40"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:14">
       <c r="A16" s="39"/>
       <c r="B16" s="25" t="s">
         <v>16</v>
@@ -1788,7 +1881,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="40"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+    <row r="17" spans="1:14" ht="18.75" customHeight="1" thickBot="1">
       <c r="A17" s="41"/>
       <c r="B17" s="42" t="s">
         <v>17</v>
@@ -1817,6 +1910,15 @@
       </c>
       <c r="K17" s="48" t="s">
         <v>52</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="48" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/m1/UnityProject/Assets/Scene/9000_Test/doc/MainControl.xlsx
+++ b/m1/UnityProject/Assets/Scene/9000_Test/doc/MainControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BA48ED-3754-4B1D-BDBB-4B4867BC0921}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FAEDB8-8933-450B-A7CA-1A8DBE075367}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,7 +607,7 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/06/18 22:01:12
+    <t xml:space="preserve">; The setting was created automatically. 2018/06/20 20:42:20
 xlsfile=@@@
 MainControl.xlsx
 @@@
@@ -621,7 +621,7 @@
 [{"Key":"S_Init","Value":{"x":83,"y":141}},{"Key":"S_CheckMouseGF","Value":{"x":1641,"y":1589.83337}},{"Key":"S_GroupFocus","Value":{"x":437.244476,"y":1574.85217}},{"Key":"S_FocusCancelWithTick","Value":{"x":168.689575,"y":1066.93384}},{"Key":"S_Refactor","Value":{"x":3145.12476,"y":1510.833}},{"Key":"S_Rename","Value":{"x":3139.74829,"y":1220.772}},{"Key":"S_Delete","Value":{"x":3138.25464,"y":956.555664}},{"Key":"S_Copy","Value":{"x":3124.11133,"y":716.5556}},{"Key":"S_ShowStateMenu","Value":{"x":2100.11133,"y":1006.36505}},{"Key":"S_FocusState2","Value":{"x":740.107239,"y":401.4206}},{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_FreeArrow","Value":{"x":690.2707,"y":1243.35376}},{"Key":"S_FocusOne","Value":{"x":696.107239,"y":1650.8717}},{"Key":"S_BranchEditClose","Value":{"x":970.8478,"y":809.6318}},{"Key":"S_TotalDraw","Value":{"x":3542.44482,"y":810.635132}},{"Key":"S_EditWait","Value":{"x":2659.69824,"y":578.5556}},{"Key":"S_Edit","Value":{"x":2427.80957,"y":735.4445}},{"Key":"S_Drop","Value":{"x":2530.85742,"y":190.253952}},{"Key":"S_DragCancel","Value":{"x":987,"y":123}},{"Key":"S_DragMove","Value":{"x":2260.30713,"y":121.274521}},{"Key":"S_Drag","Value":{"x":2073.405,"y":101.143784}},{"Key":"S_CheckMouse","Value":{"x":1443.01855,"y":243.841583}},{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":783.951}},{"Key":"S_IsMouseDown","Value":{"x":1212.59216,"y":238.459229}},{"Key":"S_FocusState","Value":{"x":736.3333,"y":174.333344}},{"Key":"S_BranchEditOpen","Value":{"x":801,"y":809}},{"Key":"S_DragAndDropGF","Value":{"x":1822.75,"y":1577}}]
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_Init","Value":{"x":31.0512848,"y":106.307693}},{"Key":"S_FocusCancelWithTick","Value":{"x":246.365723,"y":1243.87061}},{"Key":"S_GroupFocus","Value":{"x":663.088562,"y":1251.60535}},{"Key":"S_CheckMouseGF","Value":{"x":1431,"y":1386}},{"Key":"S_FocusOne","Value":{"x":944.379,"y":1241.59119}},{"Key":"S_DragAndDropGF","Value":{"x":1431,"y":1386}},{"Key":"S_ShowStateMenuGF","Value":{"x":1431,"y":1386}},{"Key":"S_Grouping","Value":{"x":1431,"y":1386}},{"Key":"S_Refactor","Value":{"x":1232,"y":168}},{"Key":"S_MoveTo","Value":{"x":1431,"y":1386}},{"Key":"S_RedrawOpt","Value":{"x":1818.19714,"y":828.893}},{"Key":"S_FocusGroupNode","Value":{"x":1232,"y":320}},{"Key":"S_CheckMouseGN","Value":{"x":1232,"y":320}},{"Key":"S_DragAndDropGN","Value":{"x":1232,"y":320}},{"Key":"S_ShowGroupNodeMenu","Value":{"x":1232,"y":320}},{"Key":"S_EnterGN","Value":{"x":1232,"y":320}},{"Key":"S_UngroupingGN","Value":{"x":1232,"y":320}},{"Key":"S_Ungrouping","Value":{"x":1431,"y":1386}},{"Key":"S_ShowBlankMenu","Value":{"x":1230,"y":497}},{"Key":"S_Rename","Value":{"x":1232,"y":168}},{"Key":"S_Copy","Value":{"x":1232,"y":168}},{"Key":"S_FocusState","Value":{"x":1232,"y":168}},{"Key":"S_IsMouseDown","Value":{"x":1232,"y":168}},{"Key":"S_FocusCancel","Value":{"x":251.681366,"y":866.6176}},{"Key":"S_CheckMouse","Value":{"x":1232,"y":168}},{"Key":"S_Drag","Value":{"x":1232,"y":168}},{"Key":"S_DragMove","Value":{"x":1232,"y":168}},{"Key":"S_DragCancel","Value":{"x":1232,"y":168}},{"Key":"S_Delete","Value":{"x":1232,"y":168}},{"Key":"S_Drop","Value":{"x":1232,"y":168}},{"Key":"S_EditWait","Value":{"x":1232,"y":168}},{"Key":"S_BranchEditOpen","Value":{"x":448.910522,"y":116.41124}},{"Key":"S_BranchEditClose","Value":{"x":642.3312,"y":113.063263}},{"Key":"S_FreeArrow","Value":{"x":662.0944,"y":880.246948}},{"Key":"S_Idle2","Value":{"x":242.300232,"y":99.9509}},{"Key":"S_FocusState2","Value":{"x":1232,"y":168}},{"Key":"S_ShowStateMenu","Value":{"x":1232,"y":168}},{"Key":"S_Edit","Value":{"x":1232,"y":168}},{"Key":"S_Leave","Value":{"x":1230,"y":497}},{"Key":"S_EditGN","Value":{"x":1232,"y":320}},{"Key":"S_BranchEditOpen0","Value":{"x":1232.91052,"y":716.411255}},{"Key":"S_HoldMBD_INIT","Value":{"x":1233.91052,"y":716.411255}},{"Key":"S_Sliding","Value":{"x":1235.91052,"y":721.411255}},{"Key":"S_Moveto","Value":{"x":1232,"y":168}},{"Key":"S_MovetoGN","Value":{"x":1232,"y":320}},{"Key":"S_NewState","Value":{"x":1230,"y":497}},{"Key":"S_START","Value":{"x":34.8235245,"y":44.8235168}},{"Key":"S_EDT_BMP","Value":{"x":693,"y":4}},{"Key":"S_EDT_ST","Value":{"x":696.6668,"y":136}},{"Key":"S_EDT_NST","Value":{"x":692,"y":270.999939}},{"Key":"S_EDT_BR","Value":{"x":697.333435,"y":415.999939}},{"Key":"S_EDT_BRGO","Value":{"x":925.3334,"y":410.000061}},{"Key":"S_EDT_TEXT","Value":{"x":925.9998,"y":958.9999}},{"Key":"S_EDT_SRCH","Value":{"x":703,"y":643.6666}},{"Key":"S_EDT_LVL","Value":{"x":693.666565,"y":817.666748}},{"Key":"S_END","Value":{"x":1084.31836,"y":25.6436768}},{"Key":"S_1","Value":{"x":884,"y":549}},{"Key":"S_WAIT","Value":{"x":507.117676,"y":47.52945}},{"Key":"S_CAMERA_0","Value":{"x":505,"y":130}},{"Key":"S_CAM_T1","Value":{"x":702.588257,"y":30.4705963}},{"Key":"S_SETUP","Value":{"x":227.2941,"y":154.411728}},{"Key":"S_LAUNCHSTART","Value":{"x":887.353,"y":30.352951}},{"Key":"S_SETUP_STAGE2","Value":{"x":390.764771,"y":362.5294}},{"Key":"S_SETUP_STAGE1","Value":{"x":315.2941,"y":32.82351}},{"Key":"S_DEBUG","Value":{"x":54.11767,"y":298.823547}},{"Key":"S_WAIT_TIMEOUT","Value":{"x":643,"y":356}},{"Key":"S_SETUP_STAGE3","Value":{"x":860,"y":349}},{"Key":"S_GAMEOVER","Value":{"x":859,"y":550}}]},{"Key":"\/SingleStateWork\/","Value":[{"Key":"S_FocusState","Value":{"x":455.0658,"y":694}},{"Key":"S_FocusCancelWithTick","Value":{"x":170.507751,"y":1170.57019}},{"Key":"S_Refactor","Value":{"x":1491.9552,"y":1516.94031}},{"Key":"S_Rename","Value":{"x":1483.36255,"y":1075.50513}},{"Key":"S_Delete","Value":{"x":1478.84619,"y":880.538452}},{"Key":"S_Copy","Value":{"x":1465.60193,"y":648.725647}},{"Key":"S_ShowStateMenu","Value":{"x":1228.15222,"y":937.124756}},{"Key":"S_FocusState2","Value":{"x":453.40625,"y":403.094421}},{"Key":"S_Idle2","Value":{"x":175.512329,"y":179.981186}},{"Key":"S_EditWait","Value":{"x":1463.96655,"y":400.675049}},{"Key":"S_Edit","Value":{"x":1224.66321,"y":485.389771}},{"Key":"S_Drop","Value":{"x":1701.46033,"y":169.437088}},{"Key":"S_DragCancel","Value":{"x":454.119263,"y":190.307678}},{"Key":"S_DragMove","Value":{"x":1468.66675,"y":122.333328}},{"Key":"S_Drag","Value":{"x":1220.46375,"y":139.14032}},{"Key":"S_CheckMouse","Value":{"x":970.461548,"y":121}},{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":776.6782}},{"Key":"S_IsMouseDown","Value":{"x":746,"y":136.504089}},{"Key":"S_FocusOne","Value":{"x":430,"y":1200.36621}},{"Key":"S_RedrawOpt","Value":{"x":1925.08044,"y":1161.68811}},{"Key":"S_Rename0","Value":{"x":1497.83618,"y":1287.34717}},{"Key":"S_Moveto","Value":{"x":1491.2572,"y":1287.34717}}]},{"Key":"\/GroupFocus\/","Value":[{"Key":"S_FocusCancel","Value":{"x":799.999939,"y":1030}},{"Key":"S_GroupFocus","Value":{"x":114.285675,"y":65.7142944}},{"Key":"S_CheckMouseGF","Value":{"x":404.8571,"y":86.94879}},{"Key":"S_DragAndDropGF","Value":{"x":806.782043,"y":89.2857056}},{"Key":"S_ShowStateMenuGF","Value":{"x":806.639038,"y":532.1429}},{"Key":"S_Grouping","Value":{"x":1107.92493,"y":127.857132}},{"Key":"S_MoveTo","Value":{"x":1099.21057,"y":556.4285}},{"Key":"S_Ungrouping","Value":{"x":1100.49622,"y":899.285645}},{"Key":"S_RedrawOpt","Value":{"x":1540.35327,"y":549.285767}}]},{"Key":"\/ShowBlankMenu\/","Value":[{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_RedrawOpt","Value":{"x":1615.9082,"y":457.833221}},{"Key":"S_ShowBlankMenu","Value":{"x":844.084534,"y":533.1274}},{"Key":"S_Leave","Value":{"x":1228.73169,"y":575.480347}}]},{"Key":"\/GroupNodeWork\/","Value":[{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":783.951}},{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_FocusCancelWithTick","Value":{"x":168.689575,"y":1066.93384}},{"Key":"S_RedrawOpt","Value":{"x":2355.6897,"y":1086.934}},{"Key":"S_FocusGroupNode","Value":{"x":693,"y":503}},{"Key":"S_CheckMouseGN","Value":{"x":940,"y":503}},{"Key":"S_DragAndDropGN","Value":{"x":1187,"y":503}},{"Key":"S_ShowGroupNodeMenu","Value":{"x":1434,"y":503}},{"Key":"S_EnterGN","Value":{"x":1681,"y":503}},{"Key":"S_UngroupingGN","Value":{"x":1686.33337,"y":658.3333}},{"Key":"S_UngroupingGN0","Value":{"x":1702.33337,"y":787.3333}},{"Key":"S_EditGN","Value":{"x":1689.66663,"y":969.6666}},{"Key":"S_MovetoGN","Value":{"x":1689.33337,"y":797.3333}}]},{"Key":"\/BlankWork\/","Value":[{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_RedrawOpt","Value":{"x":622.9669,"y":231.9509}},{"Key":"S_ShowBlankMenu","Value":{"x":869.9669,"y":231.9509}},{"Key":"S_Leave","Value":{"x":1116.96692,"y":231.9509}},{"Key":"S_Leave0","Value":{"x":1134.46692,"y":431.9509}},{"Key":"S_NewState","Value":{"x":1123.21692,"y":440.7009}}]}]
+[{"Key":"\/","Value":[{"Key":"S_Init","Value":{"x":31.0512848,"y":106.307693}},{"Key":"S_FocusCancelWithTick","Value":{"x":246.365723,"y":1243.87061}},{"Key":"S_GroupFocus","Value":{"x":663.088562,"y":1251.60535}},{"Key":"S_CheckMouseGF","Value":{"x":1431,"y":1386}},{"Key":"S_FocusOne","Value":{"x":944.379,"y":1241.59119}},{"Key":"S_DragAndDropGF","Value":{"x":1431,"y":1386}},{"Key":"S_ShowStateMenuGF","Value":{"x":1431,"y":1386}},{"Key":"S_Grouping","Value":{"x":1431,"y":1386}},{"Key":"S_Refactor","Value":{"x":1232,"y":168}},{"Key":"S_MoveTo","Value":{"x":1431,"y":1386}},{"Key":"S_RedrawOpt","Value":{"x":1818.19714,"y":828.893}},{"Key":"S_FocusGroupNode","Value":{"x":1232,"y":320}},{"Key":"S_CheckMouseGN","Value":{"x":1232,"y":320}},{"Key":"S_DragAndDropGN","Value":{"x":1232,"y":320}},{"Key":"S_ShowGroupNodeMenu","Value":{"x":1232,"y":320}},{"Key":"S_EnterGN","Value":{"x":1232,"y":320}},{"Key":"S_UngroupingGN","Value":{"x":1232,"y":320}},{"Key":"S_Ungrouping","Value":{"x":1431,"y":1386}},{"Key":"S_ShowBlankMenu","Value":{"x":1230,"y":497}},{"Key":"S_Rename","Value":{"x":1232,"y":168}},{"Key":"S_Copy","Value":{"x":1232,"y":168}},{"Key":"S_FocusState","Value":{"x":1232,"y":168}},{"Key":"S_IsMouseDown","Value":{"x":1232,"y":168}},{"Key":"S_FocusCancel","Value":{"x":251.681366,"y":866.6176}},{"Key":"S_CheckMouse","Value":{"x":1232,"y":168}},{"Key":"S_Drag","Value":{"x":1232,"y":168}},{"Key":"S_DragMove","Value":{"x":1232,"y":168}},{"Key":"S_DragCancel","Value":{"x":1232,"y":168}},{"Key":"S_Delete","Value":{"x":1232,"y":168}},{"Key":"S_Drop","Value":{"x":1232,"y":168}},{"Key":"S_EditWait","Value":{"x":1232,"y":168}},{"Key":"S_BranchEditOpen","Value":{"x":448.910522,"y":116.41124}},{"Key":"S_BranchEditClose","Value":{"x":642.3312,"y":113.063263}},{"Key":"S_FreeArrow","Value":{"x":662.0944,"y":880.246948}},{"Key":"S_Idle2","Value":{"x":242.300232,"y":99.9509}},{"Key":"S_FocusState2","Value":{"x":1232,"y":168}},{"Key":"S_ShowStateMenu","Value":{"x":1232,"y":168}},{"Key":"S_Edit","Value":{"x":1232,"y":168}},{"Key":"S_Leave","Value":{"x":1230,"y":497}},{"Key":"S_EditGN","Value":{"x":1232,"y":320}},{"Key":"S_BranchEditOpen0","Value":{"x":1232.91052,"y":716.411255}},{"Key":"S_HoldMBD_INIT","Value":{"x":1233.91052,"y":716.411255}},{"Key":"S_Sliding","Value":{"x":1235.91052,"y":721.411255}},{"Key":"S_Moveto","Value":{"x":1232,"y":168}},{"Key":"S_MovetoGN","Value":{"x":1232,"y":320}},{"Key":"S_NewState","Value":{"x":1230,"y":497}},{"Key":"S_START","Value":{"x":34.8235245,"y":44.8235168}},{"Key":"S_EDT_BMP","Value":{"x":693,"y":4}},{"Key":"S_EDT_ST","Value":{"x":696.6668,"y":136}},{"Key":"S_EDT_NST","Value":{"x":692,"y":270.999939}},{"Key":"S_EDT_BR","Value":{"x":697.333435,"y":415.999939}},{"Key":"S_EDT_BRGO","Value":{"x":925.3334,"y":410.000061}},{"Key":"S_EDT_TEXT","Value":{"x":925.9998,"y":958.9999}},{"Key":"S_EDT_SRCH","Value":{"x":703,"y":643.6666}},{"Key":"S_EDT_LVL","Value":{"x":693.666565,"y":817.666748}},{"Key":"S_END","Value":{"x":1084.31836,"y":25.6436768}},{"Key":"S_1","Value":{"x":884,"y":549}},{"Key":"S_WAIT","Value":{"x":507.117676,"y":47.52945}},{"Key":"S_CAMERA_0","Value":{"x":505,"y":130}},{"Key":"S_CAM_T1","Value":{"x":702.588257,"y":30.4705963}},{"Key":"S_SETUP","Value":{"x":227.2941,"y":154.411728}},{"Key":"S_LAUNCHSTART","Value":{"x":887.353,"y":30.352951}},{"Key":"S_SETUP_STAGE2","Value":{"x":390.764771,"y":362.5294}},{"Key":"S_SETUP_STAGE1","Value":{"x":315.2941,"y":32.82351}},{"Key":"S_DEBUG","Value":{"x":49.1176758,"y":340.823547}},{"Key":"S_WAIT_TIMEOUT","Value":{"x":643,"y":356}},{"Key":"S_SETUP_STAGE3","Value":{"x":860,"y":349}},{"Key":"S_GAMEOVER","Value":{"x":859,"y":550}}]},{"Key":"\/SingleStateWork\/","Value":[{"Key":"S_FocusState","Value":{"x":455.0658,"y":694}},{"Key":"S_FocusCancelWithTick","Value":{"x":170.507751,"y":1170.57019}},{"Key":"S_Refactor","Value":{"x":1491.9552,"y":1516.94031}},{"Key":"S_Rename","Value":{"x":1483.36255,"y":1075.50513}},{"Key":"S_Delete","Value":{"x":1478.84619,"y":880.538452}},{"Key":"S_Copy","Value":{"x":1465.60193,"y":648.725647}},{"Key":"S_ShowStateMenu","Value":{"x":1228.15222,"y":937.124756}},{"Key":"S_FocusState2","Value":{"x":453.40625,"y":403.094421}},{"Key":"S_Idle2","Value":{"x":175.512329,"y":179.981186}},{"Key":"S_EditWait","Value":{"x":1463.96655,"y":400.675049}},{"Key":"S_Edit","Value":{"x":1224.66321,"y":485.389771}},{"Key":"S_Drop","Value":{"x":1701.46033,"y":169.437088}},{"Key":"S_DragCancel","Value":{"x":454.119263,"y":190.307678}},{"Key":"S_DragMove","Value":{"x":1468.66675,"y":122.333328}},{"Key":"S_Drag","Value":{"x":1220.46375,"y":139.14032}},{"Key":"S_CheckMouse","Value":{"x":970.461548,"y":121}},{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":776.6782}},{"Key":"S_IsMouseDown","Value":{"x":746,"y":136.504089}},{"Key":"S_FocusOne","Value":{"x":430,"y":1200.36621}},{"Key":"S_RedrawOpt","Value":{"x":1925.08044,"y":1161.68811}},{"Key":"S_Rename0","Value":{"x":1497.83618,"y":1287.34717}},{"Key":"S_Moveto","Value":{"x":1491.2572,"y":1287.34717}}]},{"Key":"\/GroupFocus\/","Value":[{"Key":"S_FocusCancel","Value":{"x":799.999939,"y":1030}},{"Key":"S_GroupFocus","Value":{"x":114.285675,"y":65.7142944}},{"Key":"S_CheckMouseGF","Value":{"x":404.8571,"y":86.94879}},{"Key":"S_DragAndDropGF","Value":{"x":806.782043,"y":89.2857056}},{"Key":"S_ShowStateMenuGF","Value":{"x":806.639038,"y":532.1429}},{"Key":"S_Grouping","Value":{"x":1107.92493,"y":127.857132}},{"Key":"S_MoveTo","Value":{"x":1099.21057,"y":556.4285}},{"Key":"S_Ungrouping","Value":{"x":1100.49622,"y":899.285645}},{"Key":"S_RedrawOpt","Value":{"x":1540.35327,"y":549.285767}}]},{"Key":"\/ShowBlankMenu\/","Value":[{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_RedrawOpt","Value":{"x":1615.9082,"y":457.833221}},{"Key":"S_ShowBlankMenu","Value":{"x":844.084534,"y":533.1274}},{"Key":"S_Leave","Value":{"x":1228.73169,"y":575.480347}}]},{"Key":"\/GroupNodeWork\/","Value":[{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":783.951}},{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_FocusCancelWithTick","Value":{"x":168.689575,"y":1066.93384}},{"Key":"S_RedrawOpt","Value":{"x":2355.6897,"y":1086.934}},{"Key":"S_FocusGroupNode","Value":{"x":693,"y":503}},{"Key":"S_CheckMouseGN","Value":{"x":940,"y":503}},{"Key":"S_DragAndDropGN","Value":{"x":1187,"y":503}},{"Key":"S_ShowGroupNodeMenu","Value":{"x":1434,"y":503}},{"Key":"S_EnterGN","Value":{"x":1681,"y":503}},{"Key":"S_UngroupingGN","Value":{"x":1686.33337,"y":658.3333}},{"Key":"S_UngroupingGN0","Value":{"x":1702.33337,"y":787.3333}},{"Key":"S_EditGN","Value":{"x":1689.66663,"y":969.6666}},{"Key":"S_MovetoGN","Value":{"x":1689.33337,"y":797.3333}}]},{"Key":"\/BlankWork\/","Value":[{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_RedrawOpt","Value":{"x":622.9669,"y":231.9509}},{"Key":"S_ShowBlankMenu","Value":{"x":869.9669,"y":231.9509}},{"Key":"S_Leave","Value":{"x":1116.96692,"y":231.9509}},{"Key":"S_Leave0","Value":{"x":1134.46692,"y":431.9509}},{"Key":"S_NewState","Value":{"x":1123.21692,"y":440.7009}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -1738,7 +1738,7 @@
         <v>53</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L4" s="48" t="s">
         <v>28</v>

--- a/m1/UnityProject/Assets/Scene/9000_Test/doc/MainControl.xlsx
+++ b/m1/UnityProject/Assets/Scene/9000_Test/doc/MainControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FAEDB8-8933-450B-A7CA-1A8DBE075367}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED77DC57-78E8-4144-BF4F-890A95A89A05}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>state</t>
     <phoneticPr fontId="13"/>
@@ -566,19 +566,6 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>wait_timer(5000);</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>wait_done_or_over()</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>br_timeout(S_SETUP_STAGE3);
-br_over(S_GAMEOVER);</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>S_SETUP_STAGE3</t>
     <phoneticPr fontId="13"/>
   </si>
@@ -599,15 +586,29 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>S_SETUP_STAGE1</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>100011</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/06/20 20:42:20
+    <t>timer_reset();</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>timer_update();</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>wait_timerdone_or_over(15)</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t xml:space="preserve">br_over(S_GAMEOVER);
+br_timeout(S_SETUP_STAGE3);
+</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/06/20 22:21:42
 xlsfile=@@@
 MainControl.xlsx
 @@@
@@ -621,7 +622,7 @@
 [{"Key":"S_Init","Value":{"x":83,"y":141}},{"Key":"S_CheckMouseGF","Value":{"x":1641,"y":1589.83337}},{"Key":"S_GroupFocus","Value":{"x":437.244476,"y":1574.85217}},{"Key":"S_FocusCancelWithTick","Value":{"x":168.689575,"y":1066.93384}},{"Key":"S_Refactor","Value":{"x":3145.12476,"y":1510.833}},{"Key":"S_Rename","Value":{"x":3139.74829,"y":1220.772}},{"Key":"S_Delete","Value":{"x":3138.25464,"y":956.555664}},{"Key":"S_Copy","Value":{"x":3124.11133,"y":716.5556}},{"Key":"S_ShowStateMenu","Value":{"x":2100.11133,"y":1006.36505}},{"Key":"S_FocusState2","Value":{"x":740.107239,"y":401.4206}},{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_FreeArrow","Value":{"x":690.2707,"y":1243.35376}},{"Key":"S_FocusOne","Value":{"x":696.107239,"y":1650.8717}},{"Key":"S_BranchEditClose","Value":{"x":970.8478,"y":809.6318}},{"Key":"S_TotalDraw","Value":{"x":3542.44482,"y":810.635132}},{"Key":"S_EditWait","Value":{"x":2659.69824,"y":578.5556}},{"Key":"S_Edit","Value":{"x":2427.80957,"y":735.4445}},{"Key":"S_Drop","Value":{"x":2530.85742,"y":190.253952}},{"Key":"S_DragCancel","Value":{"x":987,"y":123}},{"Key":"S_DragMove","Value":{"x":2260.30713,"y":121.274521}},{"Key":"S_Drag","Value":{"x":2073.405,"y":101.143784}},{"Key":"S_CheckMouse","Value":{"x":1443.01855,"y":243.841583}},{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":783.951}},{"Key":"S_IsMouseDown","Value":{"x":1212.59216,"y":238.459229}},{"Key":"S_FocusState","Value":{"x":736.3333,"y":174.333344}},{"Key":"S_BranchEditOpen","Value":{"x":801,"y":809}},{"Key":"S_DragAndDropGF","Value":{"x":1822.75,"y":1577}}]
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_Init","Value":{"x":31.0512848,"y":106.307693}},{"Key":"S_FocusCancelWithTick","Value":{"x":246.365723,"y":1243.87061}},{"Key":"S_GroupFocus","Value":{"x":663.088562,"y":1251.60535}},{"Key":"S_CheckMouseGF","Value":{"x":1431,"y":1386}},{"Key":"S_FocusOne","Value":{"x":944.379,"y":1241.59119}},{"Key":"S_DragAndDropGF","Value":{"x":1431,"y":1386}},{"Key":"S_ShowStateMenuGF","Value":{"x":1431,"y":1386}},{"Key":"S_Grouping","Value":{"x":1431,"y":1386}},{"Key":"S_Refactor","Value":{"x":1232,"y":168}},{"Key":"S_MoveTo","Value":{"x":1431,"y":1386}},{"Key":"S_RedrawOpt","Value":{"x":1818.19714,"y":828.893}},{"Key":"S_FocusGroupNode","Value":{"x":1232,"y":320}},{"Key":"S_CheckMouseGN","Value":{"x":1232,"y":320}},{"Key":"S_DragAndDropGN","Value":{"x":1232,"y":320}},{"Key":"S_ShowGroupNodeMenu","Value":{"x":1232,"y":320}},{"Key":"S_EnterGN","Value":{"x":1232,"y":320}},{"Key":"S_UngroupingGN","Value":{"x":1232,"y":320}},{"Key":"S_Ungrouping","Value":{"x":1431,"y":1386}},{"Key":"S_ShowBlankMenu","Value":{"x":1230,"y":497}},{"Key":"S_Rename","Value":{"x":1232,"y":168}},{"Key":"S_Copy","Value":{"x":1232,"y":168}},{"Key":"S_FocusState","Value":{"x":1232,"y":168}},{"Key":"S_IsMouseDown","Value":{"x":1232,"y":168}},{"Key":"S_FocusCancel","Value":{"x":251.681366,"y":866.6176}},{"Key":"S_CheckMouse","Value":{"x":1232,"y":168}},{"Key":"S_Drag","Value":{"x":1232,"y":168}},{"Key":"S_DragMove","Value":{"x":1232,"y":168}},{"Key":"S_DragCancel","Value":{"x":1232,"y":168}},{"Key":"S_Delete","Value":{"x":1232,"y":168}},{"Key":"S_Drop","Value":{"x":1232,"y":168}},{"Key":"S_EditWait","Value":{"x":1232,"y":168}},{"Key":"S_BranchEditOpen","Value":{"x":448.910522,"y":116.41124}},{"Key":"S_BranchEditClose","Value":{"x":642.3312,"y":113.063263}},{"Key":"S_FreeArrow","Value":{"x":662.0944,"y":880.246948}},{"Key":"S_Idle2","Value":{"x":242.300232,"y":99.9509}},{"Key":"S_FocusState2","Value":{"x":1232,"y":168}},{"Key":"S_ShowStateMenu","Value":{"x":1232,"y":168}},{"Key":"S_Edit","Value":{"x":1232,"y":168}},{"Key":"S_Leave","Value":{"x":1230,"y":497}},{"Key":"S_EditGN","Value":{"x":1232,"y":320}},{"Key":"S_BranchEditOpen0","Value":{"x":1232.91052,"y":716.411255}},{"Key":"S_HoldMBD_INIT","Value":{"x":1233.91052,"y":716.411255}},{"Key":"S_Sliding","Value":{"x":1235.91052,"y":721.411255}},{"Key":"S_Moveto","Value":{"x":1232,"y":168}},{"Key":"S_MovetoGN","Value":{"x":1232,"y":320}},{"Key":"S_NewState","Value":{"x":1230,"y":497}},{"Key":"S_START","Value":{"x":34.8235245,"y":44.8235168}},{"Key":"S_EDT_BMP","Value":{"x":693,"y":4}},{"Key":"S_EDT_ST","Value":{"x":696.6668,"y":136}},{"Key":"S_EDT_NST","Value":{"x":692,"y":270.999939}},{"Key":"S_EDT_BR","Value":{"x":697.333435,"y":415.999939}},{"Key":"S_EDT_BRGO","Value":{"x":925.3334,"y":410.000061}},{"Key":"S_EDT_TEXT","Value":{"x":925.9998,"y":958.9999}},{"Key":"S_EDT_SRCH","Value":{"x":703,"y":643.6666}},{"Key":"S_EDT_LVL","Value":{"x":693.666565,"y":817.666748}},{"Key":"S_END","Value":{"x":1084.31836,"y":25.6436768}},{"Key":"S_1","Value":{"x":884,"y":549}},{"Key":"S_WAIT","Value":{"x":507.117676,"y":47.52945}},{"Key":"S_CAMERA_0","Value":{"x":505,"y":130}},{"Key":"S_CAM_T1","Value":{"x":702.588257,"y":30.4705963}},{"Key":"S_SETUP","Value":{"x":227.2941,"y":154.411728}},{"Key":"S_LAUNCHSTART","Value":{"x":887.353,"y":30.352951}},{"Key":"S_SETUP_STAGE2","Value":{"x":390.764771,"y":362.5294}},{"Key":"S_SETUP_STAGE1","Value":{"x":315.2941,"y":32.82351}},{"Key":"S_DEBUG","Value":{"x":49.1176758,"y":340.823547}},{"Key":"S_WAIT_TIMEOUT","Value":{"x":643,"y":356}},{"Key":"S_SETUP_STAGE3","Value":{"x":860,"y":349}},{"Key":"S_GAMEOVER","Value":{"x":859,"y":550}}]},{"Key":"\/SingleStateWork\/","Value":[{"Key":"S_FocusState","Value":{"x":455.0658,"y":694}},{"Key":"S_FocusCancelWithTick","Value":{"x":170.507751,"y":1170.57019}},{"Key":"S_Refactor","Value":{"x":1491.9552,"y":1516.94031}},{"Key":"S_Rename","Value":{"x":1483.36255,"y":1075.50513}},{"Key":"S_Delete","Value":{"x":1478.84619,"y":880.538452}},{"Key":"S_Copy","Value":{"x":1465.60193,"y":648.725647}},{"Key":"S_ShowStateMenu","Value":{"x":1228.15222,"y":937.124756}},{"Key":"S_FocusState2","Value":{"x":453.40625,"y":403.094421}},{"Key":"S_Idle2","Value":{"x":175.512329,"y":179.981186}},{"Key":"S_EditWait","Value":{"x":1463.96655,"y":400.675049}},{"Key":"S_Edit","Value":{"x":1224.66321,"y":485.389771}},{"Key":"S_Drop","Value":{"x":1701.46033,"y":169.437088}},{"Key":"S_DragCancel","Value":{"x":454.119263,"y":190.307678}},{"Key":"S_DragMove","Value":{"x":1468.66675,"y":122.333328}},{"Key":"S_Drag","Value":{"x":1220.46375,"y":139.14032}},{"Key":"S_CheckMouse","Value":{"x":970.461548,"y":121}},{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":776.6782}},{"Key":"S_IsMouseDown","Value":{"x":746,"y":136.504089}},{"Key":"S_FocusOne","Value":{"x":430,"y":1200.36621}},{"Key":"S_RedrawOpt","Value":{"x":1925.08044,"y":1161.68811}},{"Key":"S_Rename0","Value":{"x":1497.83618,"y":1287.34717}},{"Key":"S_Moveto","Value":{"x":1491.2572,"y":1287.34717}}]},{"Key":"\/GroupFocus\/","Value":[{"Key":"S_FocusCancel","Value":{"x":799.999939,"y":1030}},{"Key":"S_GroupFocus","Value":{"x":114.285675,"y":65.7142944}},{"Key":"S_CheckMouseGF","Value":{"x":404.8571,"y":86.94879}},{"Key":"S_DragAndDropGF","Value":{"x":806.782043,"y":89.2857056}},{"Key":"S_ShowStateMenuGF","Value":{"x":806.639038,"y":532.1429}},{"Key":"S_Grouping","Value":{"x":1107.92493,"y":127.857132}},{"Key":"S_MoveTo","Value":{"x":1099.21057,"y":556.4285}},{"Key":"S_Ungrouping","Value":{"x":1100.49622,"y":899.285645}},{"Key":"S_RedrawOpt","Value":{"x":1540.35327,"y":549.285767}}]},{"Key":"\/ShowBlankMenu\/","Value":[{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_RedrawOpt","Value":{"x":1615.9082,"y":457.833221}},{"Key":"S_ShowBlankMenu","Value":{"x":844.084534,"y":533.1274}},{"Key":"S_Leave","Value":{"x":1228.73169,"y":575.480347}}]},{"Key":"\/GroupNodeWork\/","Value":[{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":783.951}},{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_FocusCancelWithTick","Value":{"x":168.689575,"y":1066.93384}},{"Key":"S_RedrawOpt","Value":{"x":2355.6897,"y":1086.934}},{"Key":"S_FocusGroupNode","Value":{"x":693,"y":503}},{"Key":"S_CheckMouseGN","Value":{"x":940,"y":503}},{"Key":"S_DragAndDropGN","Value":{"x":1187,"y":503}},{"Key":"S_ShowGroupNodeMenu","Value":{"x":1434,"y":503}},{"Key":"S_EnterGN","Value":{"x":1681,"y":503}},{"Key":"S_UngroupingGN","Value":{"x":1686.33337,"y":658.3333}},{"Key":"S_UngroupingGN0","Value":{"x":1702.33337,"y":787.3333}},{"Key":"S_EditGN","Value":{"x":1689.66663,"y":969.6666}},{"Key":"S_MovetoGN","Value":{"x":1689.33337,"y":797.3333}}]},{"Key":"\/BlankWork\/","Value":[{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_RedrawOpt","Value":{"x":622.9669,"y":231.9509}},{"Key":"S_ShowBlankMenu","Value":{"x":869.9669,"y":231.9509}},{"Key":"S_Leave","Value":{"x":1116.96692,"y":231.9509}},{"Key":"S_Leave0","Value":{"x":1134.46692,"y":431.9509}},{"Key":"S_NewState","Value":{"x":1123.21692,"y":440.7009}}]}]
+[{"Key":"\/","Value":[{"Key":"S_Init","Value":{"x":31.0512848,"y":106.307693}},{"Key":"S_FocusCancelWithTick","Value":{"x":246.365723,"y":1243.87061}},{"Key":"S_GroupFocus","Value":{"x":663.088562,"y":1251.60535}},{"Key":"S_CheckMouseGF","Value":{"x":1431,"y":1386}},{"Key":"S_FocusOne","Value":{"x":944.379,"y":1241.59119}},{"Key":"S_DragAndDropGF","Value":{"x":1431,"y":1386}},{"Key":"S_ShowStateMenuGF","Value":{"x":1431,"y":1386}},{"Key":"S_Grouping","Value":{"x":1431,"y":1386}},{"Key":"S_Refactor","Value":{"x":1232,"y":168}},{"Key":"S_MoveTo","Value":{"x":1431,"y":1386}},{"Key":"S_RedrawOpt","Value":{"x":1818.19714,"y":828.893}},{"Key":"S_FocusGroupNode","Value":{"x":1232,"y":320}},{"Key":"S_CheckMouseGN","Value":{"x":1232,"y":320}},{"Key":"S_DragAndDropGN","Value":{"x":1232,"y":320}},{"Key":"S_ShowGroupNodeMenu","Value":{"x":1232,"y":320}},{"Key":"S_EnterGN","Value":{"x":1232,"y":320}},{"Key":"S_UngroupingGN","Value":{"x":1232,"y":320}},{"Key":"S_Ungrouping","Value":{"x":1431,"y":1386}},{"Key":"S_ShowBlankMenu","Value":{"x":1230,"y":497}},{"Key":"S_Rename","Value":{"x":1232,"y":168}},{"Key":"S_Copy","Value":{"x":1232,"y":168}},{"Key":"S_FocusState","Value":{"x":1232,"y":168}},{"Key":"S_IsMouseDown","Value":{"x":1232,"y":168}},{"Key":"S_FocusCancel","Value":{"x":251.681366,"y":866.6176}},{"Key":"S_CheckMouse","Value":{"x":1232,"y":168}},{"Key":"S_Drag","Value":{"x":1232,"y":168}},{"Key":"S_DragMove","Value":{"x":1232,"y":168}},{"Key":"S_DragCancel","Value":{"x":1232,"y":168}},{"Key":"S_Delete","Value":{"x":1232,"y":168}},{"Key":"S_Drop","Value":{"x":1232,"y":168}},{"Key":"S_EditWait","Value":{"x":1232,"y":168}},{"Key":"S_BranchEditOpen","Value":{"x":448.910522,"y":116.41124}},{"Key":"S_BranchEditClose","Value":{"x":642.3312,"y":113.063263}},{"Key":"S_FreeArrow","Value":{"x":662.0944,"y":880.246948}},{"Key":"S_Idle2","Value":{"x":242.300232,"y":99.9509}},{"Key":"S_FocusState2","Value":{"x":1232,"y":168}},{"Key":"S_ShowStateMenu","Value":{"x":1232,"y":168}},{"Key":"S_Edit","Value":{"x":1232,"y":168}},{"Key":"S_Leave","Value":{"x":1230,"y":497}},{"Key":"S_EditGN","Value":{"x":1232,"y":320}},{"Key":"S_BranchEditOpen0","Value":{"x":1232.91052,"y":716.411255}},{"Key":"S_HoldMBD_INIT","Value":{"x":1233.91052,"y":716.411255}},{"Key":"S_Sliding","Value":{"x":1235.91052,"y":721.411255}},{"Key":"S_Moveto","Value":{"x":1232,"y":168}},{"Key":"S_MovetoGN","Value":{"x":1232,"y":320}},{"Key":"S_NewState","Value":{"x":1230,"y":497}},{"Key":"S_START","Value":{"x":34.8235245,"y":44.8235168}},{"Key":"S_EDT_BMP","Value":{"x":693,"y":4}},{"Key":"S_EDT_ST","Value":{"x":696.6668,"y":136}},{"Key":"S_EDT_NST","Value":{"x":692,"y":270.999939}},{"Key":"S_EDT_BR","Value":{"x":697.333435,"y":415.999939}},{"Key":"S_EDT_BRGO","Value":{"x":925.3334,"y":410.000061}},{"Key":"S_EDT_TEXT","Value":{"x":925.9998,"y":958.9999}},{"Key":"S_EDT_SRCH","Value":{"x":703,"y":643.6666}},{"Key":"S_EDT_LVL","Value":{"x":693.666565,"y":817.666748}},{"Key":"S_END","Value":{"x":1084.31836,"y":25.6436768}},{"Key":"S_1","Value":{"x":884,"y":549}},{"Key":"S_WAIT","Value":{"x":507.117676,"y":47.52945}},{"Key":"S_CAMERA_0","Value":{"x":505,"y":130}},{"Key":"S_CAM_T1","Value":{"x":702.588257,"y":30.4705963}},{"Key":"S_SETUP","Value":{"x":227.2941,"y":154.411728}},{"Key":"S_LAUNCHSTART","Value":{"x":887.353,"y":30.352951}},{"Key":"S_SETUP_STAGE2","Value":{"x":390.764771,"y":362.5294}},{"Key":"S_SETUP_STAGE1","Value":{"x":315.2941,"y":32.82351}},{"Key":"S_DEBUG","Value":{"x":49.1176758,"y":340.823547}},{"Key":"S_WAIT_TIMEOUT","Value":{"x":643,"y":356}},{"Key":"S_SETUP_STAGE3","Value":{"x":996,"y":551}},{"Key":"S_GAMEOVER","Value":{"x":992,"y":340}}]},{"Key":"\/SingleStateWork\/","Value":[{"Key":"S_FocusState","Value":{"x":455.0658,"y":694}},{"Key":"S_FocusCancelWithTick","Value":{"x":170.507751,"y":1170.57019}},{"Key":"S_Refactor","Value":{"x":1491.9552,"y":1516.94031}},{"Key":"S_Rename","Value":{"x":1483.36255,"y":1075.50513}},{"Key":"S_Delete","Value":{"x":1478.84619,"y":880.538452}},{"Key":"S_Copy","Value":{"x":1465.60193,"y":648.725647}},{"Key":"S_ShowStateMenu","Value":{"x":1228.15222,"y":937.124756}},{"Key":"S_FocusState2","Value":{"x":453.40625,"y":403.094421}},{"Key":"S_Idle2","Value":{"x":175.512329,"y":179.981186}},{"Key":"S_EditWait","Value":{"x":1463.96655,"y":400.675049}},{"Key":"S_Edit","Value":{"x":1224.66321,"y":485.389771}},{"Key":"S_Drop","Value":{"x":1701.46033,"y":169.437088}},{"Key":"S_DragCancel","Value":{"x":454.119263,"y":190.307678}},{"Key":"S_DragMove","Value":{"x":1468.66675,"y":122.333328}},{"Key":"S_Drag","Value":{"x":1220.46375,"y":139.14032}},{"Key":"S_CheckMouse","Value":{"x":970.461548,"y":121}},{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":776.6782}},{"Key":"S_IsMouseDown","Value":{"x":746,"y":136.504089}},{"Key":"S_FocusOne","Value":{"x":430,"y":1200.36621}},{"Key":"S_RedrawOpt","Value":{"x":1925.08044,"y":1161.68811}},{"Key":"S_Rename0","Value":{"x":1497.83618,"y":1287.34717}},{"Key":"S_Moveto","Value":{"x":1491.2572,"y":1287.34717}}]},{"Key":"\/GroupFocus\/","Value":[{"Key":"S_FocusCancel","Value":{"x":799.999939,"y":1030}},{"Key":"S_GroupFocus","Value":{"x":114.285675,"y":65.7142944}},{"Key":"S_CheckMouseGF","Value":{"x":404.8571,"y":86.94879}},{"Key":"S_DragAndDropGF","Value":{"x":806.782043,"y":89.2857056}},{"Key":"S_ShowStateMenuGF","Value":{"x":806.639038,"y":532.1429}},{"Key":"S_Grouping","Value":{"x":1107.92493,"y":127.857132}},{"Key":"S_MoveTo","Value":{"x":1099.21057,"y":556.4285}},{"Key":"S_Ungrouping","Value":{"x":1100.49622,"y":899.285645}},{"Key":"S_RedrawOpt","Value":{"x":1540.35327,"y":549.285767}}]},{"Key":"\/ShowBlankMenu\/","Value":[{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_RedrawOpt","Value":{"x":1615.9082,"y":457.833221}},{"Key":"S_ShowBlankMenu","Value":{"x":844.084534,"y":533.1274}},{"Key":"S_Leave","Value":{"x":1228.73169,"y":575.480347}}]},{"Key":"\/GroupNodeWork\/","Value":[{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":783.951}},{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_FocusCancelWithTick","Value":{"x":168.689575,"y":1066.93384}},{"Key":"S_RedrawOpt","Value":{"x":2355.6897,"y":1086.934}},{"Key":"S_FocusGroupNode","Value":{"x":693,"y":503}},{"Key":"S_CheckMouseGN","Value":{"x":940,"y":503}},{"Key":"S_DragAndDropGN","Value":{"x":1187,"y":503}},{"Key":"S_ShowGroupNodeMenu","Value":{"x":1434,"y":503}},{"Key":"S_EnterGN","Value":{"x":1681,"y":503}},{"Key":"S_UngroupingGN","Value":{"x":1686.33337,"y":658.3333}},{"Key":"S_UngroupingGN0","Value":{"x":1702.33337,"y":787.3333}},{"Key":"S_EditGN","Value":{"x":1689.66663,"y":969.6666}},{"Key":"S_MovetoGN","Value":{"x":1689.33337,"y":797.3333}}]},{"Key":"\/BlankWork\/","Value":[{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_RedrawOpt","Value":{"x":622.9669,"y":231.9509}},{"Key":"S_ShowBlankMenu","Value":{"x":869.9669,"y":231.9509}},{"Key":"S_Leave","Value":{"x":1116.96692,"y":231.9509}},{"Key":"S_Leave0","Value":{"x":1134.46692,"y":431.9509}},{"Key":"S_NewState","Value":{"x":1123.21692,"y":440.7009}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -634,7 +635,7 @@
 label_text=@@@
 @@@
 option_delete_thisstring=0
-option_delete_br_string=0
+option_delete_br_string=1
 </t>
     <phoneticPr fontId="13"/>
   </si>
@@ -831,7 +832,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -888,6 +889,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1069,7 +1076,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1219,6 +1226,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1662,10 +1672,10 @@
         <v>54</v>
       </c>
       <c r="M2" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="47" t="s">
         <v>60</v>
-      </c>
-      <c r="N2" s="47" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="56.25">
@@ -1704,10 +1714,10 @@
         <v>55</v>
       </c>
       <c r="M3" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="48" t="s">
         <v>61</v>
-      </c>
-      <c r="N3" s="48" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1">
@@ -1738,7 +1748,7 @@
         <v>53</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L4" s="48" t="s">
         <v>28</v>
@@ -1747,7 +1757,7 @@
         <v>28</v>
       </c>
       <c r="N4" s="48" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1781,7 +1791,7 @@
         <v>50</v>
       </c>
       <c r="L6" s="49" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1799,6 +1809,9 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="33"/>
+      <c r="L8" s="51" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="6"/>
@@ -1825,7 +1838,7 @@
         <v>46</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1853,7 +1866,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="36"/>
       <c r="L13" s="49" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.75" customHeight="1">
@@ -1915,10 +1928,10 @@
         <v>56</v>
       </c>
       <c r="M17" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="48" t="s">
         <v>62</v>
-      </c>
-      <c r="N17" s="48" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/m1/UnityProject/Assets/Scene/9000_Test/doc/MainControl.xlsx
+++ b/m1/UnityProject/Assets/Scene/9000_Test/doc/MainControl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED77DC57-78E8-4144-BF4F-890A95A89A05}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB8C2AC-E2BC-4A26-9875-4F9F1B658CDB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="6" r:id="rId1"/>
@@ -25,161 +25,247 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+  <si>
+    <t>thumbnail</t>
+  </si>
+  <si>
+    <t>post_wait</t>
+  </si>
+  <si>
+    <t>S_WAIT</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>カメラを発射正面へ</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
   <si>
     <t>state</t>
-    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ステート関数</t>
-    <rPh sb="4" eb="6">
-      <t>カンスウ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>S_START</t>
+  </si>
+  <si>
+    <t>S_END</t>
+  </si>
+  <si>
+    <t>S_CAM_T1</t>
+  </si>
+  <si>
+    <t>S_SETUP_STAGE1</t>
+  </si>
+  <si>
+    <t>S_LAUNCHSTART</t>
+  </si>
+  <si>
+    <t>S_SETUP_STAGE2</t>
+  </si>
+  <si>
+    <t>S_DEBUG</t>
+  </si>
+  <si>
+    <t>S_WAIT_TIMEOUT</t>
+  </si>
+  <si>
+    <t>S_SETUP_STAGE3</t>
+  </si>
+  <si>
+    <t>S_GAMEOVER</t>
   </si>
   <si>
     <t>state-cmt</t>
-    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>ステート関数説明</t>
+  </si>
+  <si>
+    <t>開始</t>
+  </si>
+  <si>
+    <t>終了</t>
+  </si>
+  <si>
+    <t>３秒待ち</t>
+  </si>
+  <si>
+    <t>STAGE1セットアップ</t>
+  </si>
+  <si>
+    <t>発射スタート</t>
+  </si>
+  <si>
+    <t>STAGE2をセットアップ</t>
+  </si>
+  <si>
+    <t>デバッグ用</t>
+  </si>
+  <si>
+    <t>タイムアウトを待つ。死亡時もあり。</t>
+  </si>
+  <si>
+    <t>STAGE3をセットアップ</t>
+  </si>
+  <si>
+    <t>new state</t>
   </si>
   <si>
     <t>nextstate</t>
-    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>次ステート</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>ステート関数説明</t>
-    <rPh sb="4" eb="6">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>wait_timer(3);</t>
+  </si>
+  <si>
+    <t>cam_move_t1(5);</t>
+  </si>
+  <si>
+    <t>stage_1_set();
+camper_set();
+cam_set_t0();</t>
+  </si>
+  <si>
+    <t>rkt_launch();</t>
+  </si>
+  <si>
+    <t>stage_2_set();
+camort_set();
+cam_set_o1();</t>
+  </si>
+  <si>
+    <t>timer_reset();</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>timer_update();</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>wait_timer_done()</t>
+  </si>
+  <si>
+    <t>cam_move_t1_done()</t>
+  </si>
+  <si>
+    <t>rkt_launch_done()</t>
+  </si>
+  <si>
+    <t>wait_timerdone_or_over(15)</t>
   </si>
   <si>
     <t>branch</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ait</t>
-    </r>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>thumbnail</t>
-  </si>
-  <si>
-    <t>S_START</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>S_END</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>開始</t>
-    <rPh sb="0" eb="2">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>終了</t>
-    <rPh sb="0" eb="2">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t xml:space="preserve">br_over(S_GAMEOVER);
+br_timeout(S_SETUP_STAGE3);
+</t>
   </si>
   <si>
     <t>nowait</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nit</t>
-    </r>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pdate</t>
-    </r>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <r>
-      <t>!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dir</t>
-    </r>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <r>
-      <t>!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uuid</t>
-    </r>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>post_wait</t>
+  </si>
+  <si>
+    <t>!dir</t>
+  </si>
+  <si>
+    <t>!uuid</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>100005</t>
+  </si>
+  <si>
+    <t>100006</t>
+  </si>
+  <si>
+    <t>100007</t>
+  </si>
+  <si>
+    <t>100008</t>
+  </si>
+  <si>
+    <t>100009</t>
+  </si>
+  <si>
+    <t>100010</t>
+  </si>
+  <si>
+    <t>100011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/07/16 7:42:00
+; * pssgEditor version : 0.7.0.no hash because of debug
+psggfile=@@@
+@@@
+xlsfile=@@@
+MainControl.xlsx
+@@@
+guid=@@@
+b65b0871-5b7b-47e1-9fb7-73c75888b2e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Initilized
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+[{"Key":"S_Init","Value":{"x":83,"y":141}},{"Key":"S_CheckMouseGF","Value":{"x":1641,"y":1589.83337}},{"Key":"S_GroupFocus","Value":{"x":437.244476,"y":1574.85217}},{"Key":"S_FocusCancelWithTick","Value":{"x":168.689575,"y":1066.93384}},{"Key":"S_Refactor","Value":{"x":3145.12476,"y":1510.833}},{"Key":"S_Rename","Value":{"x":3139.74829,"y":1220.772}},{"Key":"S_Delete","Value":{"x":3138.25464,"y":956.555664}},{"Key":"S_Copy","Value":{"x":3124.11133,"y":716.5556}},{"Key":"S_ShowStateMenu","Value":{"x":2100.11133,"y":1006.36505}},{"Key":"S_FocusState2","Value":{"x":740.107239,"y":401.4206}},{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_FreeArrow","Value":{"x":690.2707,"y":1243.35376}},{"Key":"S_FocusOne","Value":{"x":696.107239,"y":1650.8717}},{"Key":"S_BranchEditClose","Value":{"x":970.8478,"y":809.6318}},{"Key":"S_TotalDraw","Value":{"x":3542.44482,"y":810.635132}},{"Key":"S_EditWait","Value":{"x":2659.69824,"y":578.5556}},{"Key":"S_Edit","Value":{"x":2427.80957,"y":735.4445}},{"Key":"S_Drop","Value":{"x":2530.85742,"y":190.253952}},{"Key":"S_DragCancel","Value":{"x":987,"y":123}},{"Key":"S_DragMove","Value":{"x":2260.30713,"y":121.274521}},{"Key":"S_Drag","Value":{"x":2073.405,"y":101.143784}},{"Key":"S_CheckMouse","Value":{"x":1443.01855,"y":243.841583}},{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":783.951}},{"Key":"S_IsMouseDown","Value":{"x":1212.59216,"y":238.459229}},{"Key":"S_FocusState","Value":{"x":736.3333,"y":174.333344}},{"Key":"S_BranchEditOpen","Value":{"x":801,"y":809}},{"Key":"S_DragAndDropGF","Value":{"x":1822.75,"y":1577}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":34.8235245,"y":44.8235168}},{"Key":"S_END","Value":{"x":1084.31836,"y":25.6436768}},{"Key":"S_WAIT","Value":{"x":507.117676,"y":47.52945}},{"Key":"S_CAM_T1","Value":{"x":702.588257,"y":30.4705963}},{"Key":"S_LAUNCHSTART","Value":{"x":887.353,"y":30.352951}},{"Key":"S_SETUP_STAGE2","Value":{"x":390.764771,"y":362.5294}},{"Key":"S_SETUP_STAGE1","Value":{"x":315.2941,"y":32.82351}},{"Key":"S_DEBUG","Value":{"x":49.1176758,"y":340.823547}},{"Key":"S_WAIT_TIMEOUT","Value":{"x":643,"y":356}},{"Key":"S_SETUP_STAGE3","Value":{"x":996,"y":551}},{"Key":"S_GAMEOVER","Value":{"x":992,"y":340}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+@@@
+label_show=0
+label_text=@@@
+@@@
+option_delete_thisstring=0
+option_delete_br_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-4
+</t>
   </si>
   <si>
     <t xml:space="preserve">:output=MainControl_created.cs_x000D_
@@ -190,7 +276,6 @@
     $contents2$_x000D_
 }_x000D_
 </t>
-    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t xml:space="preserve">/*_x000D_
@@ -231,7 +316,6 @@
     }_x000D_
 }_x000D_
 </t>
-    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t xml:space="preserve">[setting]_x000D_
@@ -315,7 +399,6 @@
 @@@_x000D_
 _x000D_
 </t>
-    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>; -----_x000D_
@@ -428,236 +511,18 @@
 en=@@@_x000D_
 System uses this for the uuid of the state._x000D_
 @@@</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>S_WAIT</t>
-  </si>
-  <si>
-    <t>100001</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>100002</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>100003</t>
-  </si>
-  <si>
-    <t>カメラを発射正面へ</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>100004</t>
-  </si>
-  <si>
-    <t>S_CAM_T1</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>３秒待ち</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>cam_move_t1_done()</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>wait_timer(3);</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>wait_timer_done()</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>cam_move_t1(5);</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>S_WAIT</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>100005</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>S_LAUNCHSTART</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>発射スタート</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>100006</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>rkt_launch();</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>stage_1_set();
-camper_set();
-cam_set_t0();</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>S_SETUP_STAGE1</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>STAGE1セットアップ</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>S_SETUP_STAGE2</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>rkt_launch_done()</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>S_DEBUG</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>STAGE2をセットアップ</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>100007</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>stage_2_set();
-camort_set();
-cam_set_o1();</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>デバッグ用</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>100008</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>S_WAIT_TIMEOUT</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>S_WAIT_TIMEOUT</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>タイムアウトを待つ。死亡時もあり。</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>100009</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>S_SETUP_STAGE3</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>STAGE3をセットアップ</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>100010</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>S_GAMEOVER</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>new state</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>100011</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>timer_reset();</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>timer_update();</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>wait_timerdone_or_over(15)</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t xml:space="preserve">br_over(S_GAMEOVER);
-br_timeout(S_SETUP_STAGE3);
-</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/06/20 22:21:42
-xlsfile=@@@
-MainControl.xlsx
-@@@
-bitmap_width=5000
-bitmap_height=2000
-c_statec_cmt=1
-c_thumbnail=1
-c_contents=1
-force_display_outpin=0
-state_location_list=@@@
-[{"Key":"S_Init","Value":{"x":83,"y":141}},{"Key":"S_CheckMouseGF","Value":{"x":1641,"y":1589.83337}},{"Key":"S_GroupFocus","Value":{"x":437.244476,"y":1574.85217}},{"Key":"S_FocusCancelWithTick","Value":{"x":168.689575,"y":1066.93384}},{"Key":"S_Refactor","Value":{"x":3145.12476,"y":1510.833}},{"Key":"S_Rename","Value":{"x":3139.74829,"y":1220.772}},{"Key":"S_Delete","Value":{"x":3138.25464,"y":956.555664}},{"Key":"S_Copy","Value":{"x":3124.11133,"y":716.5556}},{"Key":"S_ShowStateMenu","Value":{"x":2100.11133,"y":1006.36505}},{"Key":"S_FocusState2","Value":{"x":740.107239,"y":401.4206}},{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_FreeArrow","Value":{"x":690.2707,"y":1243.35376}},{"Key":"S_FocusOne","Value":{"x":696.107239,"y":1650.8717}},{"Key":"S_BranchEditClose","Value":{"x":970.8478,"y":809.6318}},{"Key":"S_TotalDraw","Value":{"x":3542.44482,"y":810.635132}},{"Key":"S_EditWait","Value":{"x":2659.69824,"y":578.5556}},{"Key":"S_Edit","Value":{"x":2427.80957,"y":735.4445}},{"Key":"S_Drop","Value":{"x":2530.85742,"y":190.253952}},{"Key":"S_DragCancel","Value":{"x":987,"y":123}},{"Key":"S_DragMove","Value":{"x":2260.30713,"y":121.274521}},{"Key":"S_Drag","Value":{"x":2073.405,"y":101.143784}},{"Key":"S_CheckMouse","Value":{"x":1443.01855,"y":243.841583}},{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":783.951}},{"Key":"S_IsMouseDown","Value":{"x":1212.59216,"y":238.459229}},{"Key":"S_FocusState","Value":{"x":736.3333,"y":174.333344}},{"Key":"S_BranchEditOpen","Value":{"x":801,"y":809}},{"Key":"S_DragAndDropGF","Value":{"x":1822.75,"y":1577}}]
-@@@
-fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_Init","Value":{"x":31.0512848,"y":106.307693}},{"Key":"S_FocusCancelWithTick","Value":{"x":246.365723,"y":1243.87061}},{"Key":"S_GroupFocus","Value":{"x":663.088562,"y":1251.60535}},{"Key":"S_CheckMouseGF","Value":{"x":1431,"y":1386}},{"Key":"S_FocusOne","Value":{"x":944.379,"y":1241.59119}},{"Key":"S_DragAndDropGF","Value":{"x":1431,"y":1386}},{"Key":"S_ShowStateMenuGF","Value":{"x":1431,"y":1386}},{"Key":"S_Grouping","Value":{"x":1431,"y":1386}},{"Key":"S_Refactor","Value":{"x":1232,"y":168}},{"Key":"S_MoveTo","Value":{"x":1431,"y":1386}},{"Key":"S_RedrawOpt","Value":{"x":1818.19714,"y":828.893}},{"Key":"S_FocusGroupNode","Value":{"x":1232,"y":320}},{"Key":"S_CheckMouseGN","Value":{"x":1232,"y":320}},{"Key":"S_DragAndDropGN","Value":{"x":1232,"y":320}},{"Key":"S_ShowGroupNodeMenu","Value":{"x":1232,"y":320}},{"Key":"S_EnterGN","Value":{"x":1232,"y":320}},{"Key":"S_UngroupingGN","Value":{"x":1232,"y":320}},{"Key":"S_Ungrouping","Value":{"x":1431,"y":1386}},{"Key":"S_ShowBlankMenu","Value":{"x":1230,"y":497}},{"Key":"S_Rename","Value":{"x":1232,"y":168}},{"Key":"S_Copy","Value":{"x":1232,"y":168}},{"Key":"S_FocusState","Value":{"x":1232,"y":168}},{"Key":"S_IsMouseDown","Value":{"x":1232,"y":168}},{"Key":"S_FocusCancel","Value":{"x":251.681366,"y":866.6176}},{"Key":"S_CheckMouse","Value":{"x":1232,"y":168}},{"Key":"S_Drag","Value":{"x":1232,"y":168}},{"Key":"S_DragMove","Value":{"x":1232,"y":168}},{"Key":"S_DragCancel","Value":{"x":1232,"y":168}},{"Key":"S_Delete","Value":{"x":1232,"y":168}},{"Key":"S_Drop","Value":{"x":1232,"y":168}},{"Key":"S_EditWait","Value":{"x":1232,"y":168}},{"Key":"S_BranchEditOpen","Value":{"x":448.910522,"y":116.41124}},{"Key":"S_BranchEditClose","Value":{"x":642.3312,"y":113.063263}},{"Key":"S_FreeArrow","Value":{"x":662.0944,"y":880.246948}},{"Key":"S_Idle2","Value":{"x":242.300232,"y":99.9509}},{"Key":"S_FocusState2","Value":{"x":1232,"y":168}},{"Key":"S_ShowStateMenu","Value":{"x":1232,"y":168}},{"Key":"S_Edit","Value":{"x":1232,"y":168}},{"Key":"S_Leave","Value":{"x":1230,"y":497}},{"Key":"S_EditGN","Value":{"x":1232,"y":320}},{"Key":"S_BranchEditOpen0","Value":{"x":1232.91052,"y":716.411255}},{"Key":"S_HoldMBD_INIT","Value":{"x":1233.91052,"y":716.411255}},{"Key":"S_Sliding","Value":{"x":1235.91052,"y":721.411255}},{"Key":"S_Moveto","Value":{"x":1232,"y":168}},{"Key":"S_MovetoGN","Value":{"x":1232,"y":320}},{"Key":"S_NewState","Value":{"x":1230,"y":497}},{"Key":"S_START","Value":{"x":34.8235245,"y":44.8235168}},{"Key":"S_EDT_BMP","Value":{"x":693,"y":4}},{"Key":"S_EDT_ST","Value":{"x":696.6668,"y":136}},{"Key":"S_EDT_NST","Value":{"x":692,"y":270.999939}},{"Key":"S_EDT_BR","Value":{"x":697.333435,"y":415.999939}},{"Key":"S_EDT_BRGO","Value":{"x":925.3334,"y":410.000061}},{"Key":"S_EDT_TEXT","Value":{"x":925.9998,"y":958.9999}},{"Key":"S_EDT_SRCH","Value":{"x":703,"y":643.6666}},{"Key":"S_EDT_LVL","Value":{"x":693.666565,"y":817.666748}},{"Key":"S_END","Value":{"x":1084.31836,"y":25.6436768}},{"Key":"S_1","Value":{"x":884,"y":549}},{"Key":"S_WAIT","Value":{"x":507.117676,"y":47.52945}},{"Key":"S_CAMERA_0","Value":{"x":505,"y":130}},{"Key":"S_CAM_T1","Value":{"x":702.588257,"y":30.4705963}},{"Key":"S_SETUP","Value":{"x":227.2941,"y":154.411728}},{"Key":"S_LAUNCHSTART","Value":{"x":887.353,"y":30.352951}},{"Key":"S_SETUP_STAGE2","Value":{"x":390.764771,"y":362.5294}},{"Key":"S_SETUP_STAGE1","Value":{"x":315.2941,"y":32.82351}},{"Key":"S_DEBUG","Value":{"x":49.1176758,"y":340.823547}},{"Key":"S_WAIT_TIMEOUT","Value":{"x":643,"y":356}},{"Key":"S_SETUP_STAGE3","Value":{"x":996,"y":551}},{"Key":"S_GAMEOVER","Value":{"x":992,"y":340}}]},{"Key":"\/SingleStateWork\/","Value":[{"Key":"S_FocusState","Value":{"x":455.0658,"y":694}},{"Key":"S_FocusCancelWithTick","Value":{"x":170.507751,"y":1170.57019}},{"Key":"S_Refactor","Value":{"x":1491.9552,"y":1516.94031}},{"Key":"S_Rename","Value":{"x":1483.36255,"y":1075.50513}},{"Key":"S_Delete","Value":{"x":1478.84619,"y":880.538452}},{"Key":"S_Copy","Value":{"x":1465.60193,"y":648.725647}},{"Key":"S_ShowStateMenu","Value":{"x":1228.15222,"y":937.124756}},{"Key":"S_FocusState2","Value":{"x":453.40625,"y":403.094421}},{"Key":"S_Idle2","Value":{"x":175.512329,"y":179.981186}},{"Key":"S_EditWait","Value":{"x":1463.96655,"y":400.675049}},{"Key":"S_Edit","Value":{"x":1224.66321,"y":485.389771}},{"Key":"S_Drop","Value":{"x":1701.46033,"y":169.437088}},{"Key":"S_DragCancel","Value":{"x":454.119263,"y":190.307678}},{"Key":"S_DragMove","Value":{"x":1468.66675,"y":122.333328}},{"Key":"S_Drag","Value":{"x":1220.46375,"y":139.14032}},{"Key":"S_CheckMouse","Value":{"x":970.461548,"y":121}},{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":776.6782}},{"Key":"S_IsMouseDown","Value":{"x":746,"y":136.504089}},{"Key":"S_FocusOne","Value":{"x":430,"y":1200.36621}},{"Key":"S_RedrawOpt","Value":{"x":1925.08044,"y":1161.68811}},{"Key":"S_Rename0","Value":{"x":1497.83618,"y":1287.34717}},{"Key":"S_Moveto","Value":{"x":1491.2572,"y":1287.34717}}]},{"Key":"\/GroupFocus\/","Value":[{"Key":"S_FocusCancel","Value":{"x":799.999939,"y":1030}},{"Key":"S_GroupFocus","Value":{"x":114.285675,"y":65.7142944}},{"Key":"S_CheckMouseGF","Value":{"x":404.8571,"y":86.94879}},{"Key":"S_DragAndDropGF","Value":{"x":806.782043,"y":89.2857056}},{"Key":"S_ShowStateMenuGF","Value":{"x":806.639038,"y":532.1429}},{"Key":"S_Grouping","Value":{"x":1107.92493,"y":127.857132}},{"Key":"S_MoveTo","Value":{"x":1099.21057,"y":556.4285}},{"Key":"S_Ungrouping","Value":{"x":1100.49622,"y":899.285645}},{"Key":"S_RedrawOpt","Value":{"x":1540.35327,"y":549.285767}}]},{"Key":"\/ShowBlankMenu\/","Value":[{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_RedrawOpt","Value":{"x":1615.9082,"y":457.833221}},{"Key":"S_ShowBlankMenu","Value":{"x":844.084534,"y":533.1274}},{"Key":"S_Leave","Value":{"x":1228.73169,"y":575.480347}}]},{"Key":"\/GroupNodeWork\/","Value":[{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":783.951}},{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_FocusCancelWithTick","Value":{"x":168.689575,"y":1066.93384}},{"Key":"S_RedrawOpt","Value":{"x":2355.6897,"y":1086.934}},{"Key":"S_FocusGroupNode","Value":{"x":693,"y":503}},{"Key":"S_CheckMouseGN","Value":{"x":940,"y":503}},{"Key":"S_DragAndDropGN","Value":{"x":1187,"y":503}},{"Key":"S_ShowGroupNodeMenu","Value":{"x":1434,"y":503}},{"Key":"S_EnterGN","Value":{"x":1681,"y":503}},{"Key":"S_UngroupingGN","Value":{"x":1686.33337,"y":658.3333}},{"Key":"S_UngroupingGN0","Value":{"x":1702.33337,"y":787.3333}},{"Key":"S_EditGN","Value":{"x":1689.66663,"y":969.6666}},{"Key":"S_MovetoGN","Value":{"x":1689.33337,"y":797.3333}}]},{"Key":"\/BlankWork\/","Value":[{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_RedrawOpt","Value":{"x":622.9669,"y":231.9509}},{"Key":"S_ShowBlankMenu","Value":{"x":869.9669,"y":231.9509}},{"Key":"S_Leave","Value":{"x":1116.96692,"y":231.9509}},{"Key":"S_Leave0","Value":{"x":1134.46692,"y":431.9509}},{"Key":"S_NewState","Value":{"x":1123.21692,"y":440.7009}}]}]
-@@@
-linecolor_data=@@@
-[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
-@@@
-external_command=@@@
-@@@
-source_editor=@@@
-@@@
-label_show=0
-label_text=@@@
-@@@
-option_delete_thisstring=0
-option_delete_br_string=1
-</t>
-    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1057,178 +922,178 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="7" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="8" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1519,17 +1384,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A9BF38-2CB7-4A24-9F75-A3816FC1A135}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="44" t="s">
-        <v>67</v>
+      <c r="A1" s="51" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1543,12 +1408,12 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="44" t="s">
-        <v>21</v>
+      <c r="A1" s="51" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1563,12 +1428,12 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="44" t="s">
-        <v>22</v>
+      <c r="A1" s="51" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1582,12 +1447,12 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="44" t="s">
-        <v>20</v>
+      <c r="A1" s="51" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1601,12 +1466,12 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="44" t="s">
-        <v>19</v>
+      <c r="A1" s="51" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1615,7 +1480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1628,314 +1493,419 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="144.75" customHeight="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:14" s="20" customFormat="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="56.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A6" s="26"/>
+      <c r="B6" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="26"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="26"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="26"/>
+      <c r="B11" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="47" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="26"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="44"/>
+      <c r="B16" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A17" s="48"/>
+      <c r="B17" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="I17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="L17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="56.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="6"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="6"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="32"/>
-    </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="33"/>
-      <c r="L8" s="51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="6"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="33"/>
-    </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="6"/>
-      <c r="B11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="34"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="6"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="35"/>
-    </row>
-    <row r="13" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="36"/>
-      <c r="L13" s="49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="38"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="39"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="40"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="39"/>
-      <c r="B16" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="40"/>
-    </row>
-    <row r="17" spans="1:14" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="M17" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="N17" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
